--- a/MILP/model_output/benders_convergence.xlsx
+++ b/MILP/model_output/benders_convergence.xlsx
@@ -411,19 +411,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>419727.4696499151</v>
+        <v>384399.8731553834</v>
       </c>
       <c r="C2">
-        <v>381774.9710848695</v>
+        <v>324789.5172530132</v>
       </c>
       <c r="D2">
-        <v>-37952.49856504559</v>
+        <v>-59610.35590237018</v>
       </c>
       <c r="E2">
-        <v>0.0994106514033594</v>
+        <v>0.1835353443871567</v>
       </c>
     </row>
   </sheetData>

--- a/MILP/model_output/benders_convergence.xlsx
+++ b/MILP/model_output/benders_convergence.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>iteration</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>relative_gap</t>
+  </si>
+  <si>
+    <t>optimality_cuts</t>
+  </si>
+  <si>
+    <t>feasibility_cuts</t>
   </si>
 </sst>
 </file>
@@ -386,13 +392,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,22 +414,80 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>384399.8731553834</v>
       </c>
       <c r="C2">
-        <v>324789.5172530132</v>
+        <v>424569.0608414363</v>
       </c>
       <c r="D2">
-        <v>-59610.35590237018</v>
+        <v>40169.18768605293</v>
       </c>
       <c r="E2">
-        <v>0.1835353443871567</v>
+        <v>0.09461166955134041</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>384399.8731553834</v>
+      </c>
+      <c r="C3">
+        <v>424569.0608414363</v>
+      </c>
+      <c r="D3">
+        <v>40169.18768605293</v>
+      </c>
+      <c r="E3">
+        <v>0.09461166955134041</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>384399.8731553834</v>
+      </c>
+      <c r="C4">
+        <v>424569.0608414363</v>
+      </c>
+      <c r="D4">
+        <v>40169.18768605293</v>
+      </c>
+      <c r="E4">
+        <v>0.09461166955134041</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/MILP/model_output/benders_convergence.xlsx
+++ b/MILP/model_output/benders_convergence.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,71 +423,94 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>384399.8731553834</v>
+        <v>29450.76249777299</v>
       </c>
       <c r="C2">
-        <v>424569.0608414363</v>
+        <v>97999.564457</v>
       </c>
       <c r="D2">
-        <v>40169.18768605293</v>
+        <v>68548.80195922701</v>
       </c>
       <c r="E2">
-        <v>0.09461166955134041</v>
+        <v>0.6994806797259249</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>384399.8731553834</v>
+        <v>47360.61616846517</v>
       </c>
       <c r="C3">
-        <v>424569.0608414363</v>
+        <v>95187.70036838995</v>
       </c>
       <c r="D3">
-        <v>40169.18768605293</v>
+        <v>47827.08419992479</v>
       </c>
       <c r="E3">
-        <v>0.09461166955134041</v>
+        <v>0.5024502537074339</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>384399.8731553834</v>
+        <v>47360.61616846517</v>
       </c>
       <c r="C4">
-        <v>424569.0608414363</v>
+        <v>56296.91976182492</v>
       </c>
       <c r="D4">
-        <v>40169.18768605293</v>
+        <v>8936.303593359757</v>
       </c>
       <c r="E4">
-        <v>0.09461166955134041</v>
+        <v>0.158735213776642</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>48058.80006221523</v>
+      </c>
+      <c r="C5">
+        <v>48058.80006221488</v>
+      </c>
+      <c r="D5">
+        <v>-3.565219230949879E-10</v>
+      </c>
+      <c r="E5">
+        <v>7.418452450611523E-15</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
